--- a/001_プロジェクト管理/001_帳票/質問管理表.xlsx
+++ b/001_プロジェクト管理/001_帳票/質問管理表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\Desktop\新しいフォルダー\003_problem_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\document\share\document\001_プロジェクト管理\001_帳票\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA30DD1D-F71E-4F43-B149-64F9335ED37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0438F45A-54F7-40F2-8F85-EC83383F923D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="4" r:id="rId1"/>
@@ -1134,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCF8F02-CDFA-B642-83E2-F4D8A29703BF}">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1599,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48ACF6C-5FC6-41EB-BA65-9A1CFA3F7F5D}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
